--- a/report/experiments/1d_complete.xlsx
+++ b/report/experiments/1d_complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/QVO/code/xzyao/projects/index/msc-project/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7B6C620A-0565-934E-8D7F-9711F7E548FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{95A643E8-B89D-8E47-9E44-E74B4CAA36BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp1_details" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="exp2_details" sheetId="1" r:id="rId3"/>
     <sheet name="exp2_summary" sheetId="2" r:id="rId4"/>
     <sheet name="exp2_temporary" sheetId="5" r:id="rId5"/>
+    <sheet name="exp3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="614" uniqueCount="90">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="632" uniqueCount="106">
   <si>
     <t>Dimensions</t>
   </si>
@@ -308,6 +309,54 @@
   <si>
     <t>Construction Time</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Build Time</t>
+  </si>
+  <si>
+    <t>Memory Size</t>
+  </si>
+  <si>
+    <t>Staged Model 1</t>
+  </si>
+  <si>
+    <t>Staged Model 2</t>
+  </si>
+  <si>
+    <t>Staged Model 3</t>
+  </si>
+  <si>
+    <t>Staged Model 4</t>
+  </si>
+  <si>
+    <t>Staged Model 5</t>
+  </si>
+  <si>
+    <t>Staged Model 6</t>
+  </si>
+  <si>
+    <t>Staged Model 7</t>
+  </si>
+  <si>
+    <t>Staged Model 8</t>
+  </si>
+  <si>
+    <t>Staged Model 9</t>
+  </si>
+  <si>
+    <t>Staged Model 10</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Evaluation time (s)</t>
+  </si>
+  <si>
+    <t>Average Query Time (ms)</t>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,6 +512,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -845,7 +900,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -909,6 +964,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,14 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2408,10 +2472,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2423,7 +2487,7 @@
       <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="33">
         <v>1</v>
       </c>
       <c r="G2">
@@ -2444,8 +2508,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
@@ -2455,7 +2519,7 @@
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="33"/>
       <c r="G3">
         <v>815.81139799999801</v>
       </c>
@@ -2474,8 +2538,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2485,7 +2549,7 @@
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="33"/>
       <c r="G4">
         <v>101.848525699999</v>
       </c>
@@ -2504,8 +2568,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2515,7 +2579,7 @@
       <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="33"/>
       <c r="G5">
         <v>623.8053903</v>
       </c>
@@ -2534,8 +2598,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
@@ -2545,7 +2609,7 @@
       <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="33"/>
       <c r="G6">
         <v>106.28747070000099</v>
       </c>
@@ -2564,8 +2628,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2575,7 +2639,7 @@
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="33"/>
       <c r="G7">
         <v>1061.5543981000001</v>
       </c>
@@ -2594,8 +2658,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
@@ -2605,7 +2669,7 @@
       <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="33"/>
       <c r="G8">
         <v>712.01199199999905</v>
       </c>
@@ -2624,8 +2688,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2635,7 +2699,7 @@
       <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="33"/>
       <c r="G9">
         <v>963.82935789999794</v>
       </c>
@@ -2654,8 +2718,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2665,7 +2729,7 @@
       <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="33"/>
       <c r="G10">
         <v>110.1170094</v>
       </c>
@@ -2684,8 +2748,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2695,7 +2759,7 @@
       <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="33">
         <v>2</v>
       </c>
       <c r="G11">
@@ -2712,8 +2776,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
@@ -2723,7 +2787,7 @@
       <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="33"/>
       <c r="G12">
         <v>1379.0209531999999</v>
       </c>
@@ -2738,8 +2802,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2749,7 +2813,7 @@
       <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="33"/>
       <c r="G13">
         <v>1851.30138699999</v>
       </c>
@@ -2764,8 +2828,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
@@ -2775,7 +2839,7 @@
       <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="33"/>
       <c r="G14">
         <v>109.737640999999</v>
       </c>
@@ -2790,8 +2854,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2801,7 +2865,7 @@
       <c r="E15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="33"/>
       <c r="G15">
         <v>934.23514630000102</v>
       </c>
@@ -2816,8 +2880,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2827,7 +2891,7 @@
       <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="33"/>
       <c r="G16">
         <v>108.80778999999799</v>
       </c>
@@ -2842,8 +2906,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
@@ -2853,7 +2917,7 @@
       <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="33"/>
       <c r="G17">
         <v>99.794584099999994</v>
       </c>
@@ -2868,8 +2932,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2879,7 +2943,7 @@
       <c r="E18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="33"/>
       <c r="G18">
         <v>832.76475140000105</v>
       </c>
@@ -2894,8 +2958,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2905,7 +2969,7 @@
       <c r="E19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="33"/>
       <c r="G19">
         <v>97.447959299999596</v>
       </c>
@@ -2920,8 +2984,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
@@ -2931,7 +2995,7 @@
       <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="33">
         <v>3</v>
       </c>
       <c r="G20">
@@ -2948,8 +3012,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2959,7 +3023,7 @@
       <c r="E21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="33"/>
       <c r="G21">
         <v>1229.7312300000001</v>
       </c>
@@ -2974,8 +3038,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2985,7 +3049,7 @@
       <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="33"/>
       <c r="G22">
         <v>113.25143300000001</v>
       </c>
@@ -3000,8 +3064,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="5" t="s">
         <v>20</v>
       </c>
@@ -3011,7 +3075,7 @@
       <c r="E23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="27"/>
+      <c r="F23" s="33"/>
       <c r="G23">
         <v>715.97740299999998</v>
       </c>
@@ -3027,8 +3091,8 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="5" t="s">
         <v>20</v>
       </c>
@@ -3038,7 +3102,7 @@
       <c r="E24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="33"/>
       <c r="G24">
         <v>870.01640199999997</v>
       </c>
@@ -3053,8 +3117,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="5" t="s">
         <v>20</v>
       </c>
@@ -3064,7 +3128,7 @@
       <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="33"/>
       <c r="G25">
         <v>1055.8516199999999</v>
       </c>
@@ -3079,8 +3143,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3090,7 +3154,7 @@
       <c r="E26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="33"/>
       <c r="G26">
         <v>703.07148900000004</v>
       </c>
@@ -3106,8 +3170,8 @@
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3117,7 +3181,7 @@
       <c r="E27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="33"/>
       <c r="G27">
         <v>842.20895099999996</v>
       </c>
@@ -3133,8 +3197,8 @@
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="5" t="s">
         <v>20</v>
       </c>
@@ -3144,7 +3208,7 @@
       <c r="E28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="33"/>
       <c r="G28">
         <v>913.27307399999995</v>
       </c>
@@ -3160,8 +3224,8 @@
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
@@ -3171,7 +3235,7 @@
       <c r="E29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="33">
         <v>1</v>
       </c>
       <c r="G29">
@@ -3192,8 +3256,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
@@ -3203,7 +3267,7 @@
       <c r="E30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="33"/>
       <c r="G30">
         <v>0.49622699999599701</v>
       </c>
@@ -3222,8 +3286,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="5" t="s">
         <v>22</v>
       </c>
@@ -3233,7 +3297,7 @@
       <c r="E31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="33"/>
       <c r="G31">
         <v>0.57650300000386701</v>
       </c>
@@ -3252,8 +3316,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="5" t="s">
         <v>22</v>
       </c>
@@ -3263,7 +3327,7 @@
       <c r="E32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="27"/>
+      <c r="F32" s="33"/>
       <c r="G32">
         <v>0.46265810000477298</v>
       </c>
@@ -3282,8 +3346,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="5" t="s">
         <v>22</v>
       </c>
@@ -3293,7 +3357,7 @@
       <c r="E33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="27"/>
+      <c r="F33" s="33"/>
       <c r="G33">
         <v>0.95725110000057601</v>
       </c>
@@ -3312,8 +3376,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="5" t="s">
         <v>22</v>
       </c>
@@ -3323,7 +3387,7 @@
       <c r="E34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="27"/>
+      <c r="F34" s="33"/>
       <c r="G34">
         <v>1.1006100999948101</v>
       </c>
@@ -3342,8 +3406,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="5" t="s">
         <v>22</v>
       </c>
@@ -3353,7 +3417,7 @@
       <c r="E35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="27"/>
+      <c r="F35" s="33"/>
       <c r="G35">
         <v>0.82399119999899995</v>
       </c>
@@ -3372,8 +3436,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="5" t="s">
         <v>22</v>
       </c>
@@ -3383,7 +3447,7 @@
       <c r="E36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="27"/>
+      <c r="F36" s="33"/>
       <c r="G36">
         <v>0.61950169999909099</v>
       </c>
@@ -3402,8 +3466,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="5" t="s">
         <v>22</v>
       </c>
@@ -3413,7 +3477,7 @@
       <c r="E37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="27"/>
+      <c r="F37" s="33"/>
       <c r="G37">
         <v>0.54351080000924401</v>
       </c>
@@ -3432,8 +3496,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="5" t="s">
         <v>22</v>
       </c>
@@ -3443,7 +3507,7 @@
       <c r="E38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="33">
         <v>2</v>
       </c>
       <c r="G38">
@@ -3461,8 +3525,8 @@
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="5" t="s">
         <v>22</v>
       </c>
@@ -3472,7 +3536,7 @@
       <c r="E39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="27"/>
+      <c r="F39" s="33"/>
       <c r="G39">
         <v>0.48594689999299501</v>
       </c>
@@ -3488,8 +3552,8 @@
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="5" t="s">
         <v>22</v>
       </c>
@@ -3499,7 +3563,7 @@
       <c r="E40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="27"/>
+      <c r="F40" s="33"/>
       <c r="G40">
         <v>0.56573300001036797</v>
       </c>
@@ -3515,8 +3579,8 @@
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="5" t="s">
         <v>22</v>
       </c>
@@ -3526,7 +3590,7 @@
       <c r="E41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="27"/>
+      <c r="F41" s="33"/>
       <c r="G41">
         <v>0.43069809999724301</v>
       </c>
@@ -3542,8 +3606,8 @@
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="5" t="s">
         <v>22</v>
       </c>
@@ -3553,7 +3617,7 @@
       <c r="E42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="27"/>
+      <c r="F42" s="33"/>
       <c r="G42">
         <v>0.955388400005176</v>
       </c>
@@ -3569,8 +3633,8 @@
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="5" t="s">
         <v>22</v>
       </c>
@@ -3580,7 +3644,7 @@
       <c r="E43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="27"/>
+      <c r="F43" s="33"/>
       <c r="G43">
         <v>1.1025935000070599</v>
       </c>
@@ -3596,8 +3660,8 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="5" t="s">
         <v>22</v>
       </c>
@@ -3607,7 +3671,7 @@
       <c r="E44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="27"/>
+      <c r="F44" s="33"/>
       <c r="G44">
         <v>0.82238709999364801</v>
       </c>
@@ -3622,8 +3686,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="5" t="s">
         <v>22</v>
       </c>
@@ -3633,7 +3697,7 @@
       <c r="E45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="27"/>
+      <c r="F45" s="33"/>
       <c r="G45">
         <v>0.66707440000027396</v>
       </c>
@@ -3648,8 +3712,8 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="5" t="s">
         <v>22</v>
       </c>
@@ -3659,7 +3723,7 @@
       <c r="E46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="27"/>
+      <c r="F46" s="33"/>
       <c r="G46">
         <v>0.56852570000046398</v>
       </c>
@@ -3674,8 +3738,8 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="5" t="s">
         <v>22</v>
       </c>
@@ -3685,7 +3749,7 @@
       <c r="E47" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="33">
         <v>3</v>
       </c>
       <c r="G47">
@@ -3702,8 +3766,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="5" t="s">
         <v>22</v>
       </c>
@@ -3713,7 +3777,7 @@
       <c r="E48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="27"/>
+      <c r="F48" s="33"/>
       <c r="G48">
         <v>0.49440859999999998</v>
       </c>
@@ -3728,8 +3792,8 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="5" t="s">
         <v>22</v>
       </c>
@@ -3739,7 +3803,7 @@
       <c r="E49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="27"/>
+      <c r="F49" s="33"/>
       <c r="G49">
         <v>0.57769630000000005</v>
       </c>
@@ -3754,8 +3818,8 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="5" t="s">
         <v>22</v>
       </c>
@@ -3765,7 +3829,7 @@
       <c r="E50" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="27"/>
+      <c r="F50" s="33"/>
       <c r="G50">
         <v>0.4187824</v>
       </c>
@@ -3780,8 +3844,8 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="5" t="s">
         <v>22</v>
       </c>
@@ -3791,7 +3855,7 @@
       <c r="E51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="27"/>
+      <c r="F51" s="33"/>
       <c r="G51">
         <v>0.48984919999999998</v>
       </c>
@@ -3806,8 +3870,8 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="5" t="s">
         <v>22</v>
       </c>
@@ -3817,7 +3881,7 @@
       <c r="E52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="27"/>
+      <c r="F52" s="33"/>
       <c r="G52">
         <v>0.58700799999999997</v>
       </c>
@@ -3832,8 +3896,8 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="5" t="s">
         <v>22</v>
       </c>
@@ -3843,7 +3907,7 @@
       <c r="E53" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="27"/>
+      <c r="F53" s="33"/>
       <c r="G53">
         <v>0.4173924</v>
       </c>
@@ -3858,8 +3922,8 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="5" t="s">
         <v>22</v>
       </c>
@@ -3869,7 +3933,7 @@
       <c r="E54" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F54" s="27"/>
+      <c r="F54" s="33"/>
       <c r="G54">
         <v>0.48682150000000002</v>
       </c>
@@ -3884,8 +3948,8 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="5" t="s">
         <v>22</v>
       </c>
@@ -3895,7 +3959,7 @@
       <c r="E55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="27"/>
+      <c r="F55" s="33"/>
       <c r="G55">
         <v>0.54707810000000001</v>
       </c>
@@ -3910,8 +3974,8 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="7" t="s">
         <v>22</v>
       </c>
@@ -3921,7 +3985,7 @@
       <c r="E56" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="27">
+      <c r="F56" s="33">
         <v>1</v>
       </c>
       <c r="G56">
@@ -3942,8 +4006,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="7" t="s">
         <v>22</v>
       </c>
@@ -3953,7 +4017,7 @@
       <c r="E57" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="27"/>
+      <c r="F57" s="33"/>
       <c r="G57">
         <v>341.664933100008</v>
       </c>
@@ -3972,8 +4036,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="29"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="7" t="s">
         <v>20</v>
       </c>
@@ -3983,7 +4047,7 @@
       <c r="E58" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="27"/>
+      <c r="F58" s="33"/>
       <c r="G58">
         <v>90.293836500000893</v>
       </c>
@@ -4002,8 +4066,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="7" t="s">
         <v>20</v>
       </c>
@@ -4013,7 +4077,7 @@
       <c r="E59" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="27"/>
+      <c r="F59" s="33"/>
       <c r="G59">
         <v>32.586143799999199</v>
       </c>
@@ -4032,8 +4096,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="35"/>
       <c r="C60" s="7" t="s">
         <v>22</v>
       </c>
@@ -4043,7 +4107,7 @@
       <c r="E60" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="27"/>
+      <c r="F60" s="33"/>
       <c r="G60">
         <v>52.603245599995702</v>
       </c>
@@ -4062,8 +4126,8 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="7" t="s">
         <v>20</v>
       </c>
@@ -4073,7 +4137,7 @@
       <c r="E61" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="27"/>
+      <c r="F61" s="33"/>
       <c r="G61">
         <v>209.16580190000201</v>
       </c>
@@ -4092,8 +4156,8 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="7" t="s">
         <v>22</v>
       </c>
@@ -4103,7 +4167,7 @@
       <c r="E62" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F62" s="33">
         <v>2</v>
       </c>
       <c r="G62">
@@ -4120,8 +4184,8 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="7" t="s">
         <v>22</v>
       </c>
@@ -4131,7 +4195,7 @@
       <c r="E63" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="27"/>
+      <c r="F63" s="33"/>
       <c r="G63">
         <v>481.68006150001003</v>
       </c>
@@ -4146,8 +4210,8 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="7" t="s">
         <v>20</v>
       </c>
@@ -4157,7 +4221,7 @@
       <c r="E64" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="27"/>
+      <c r="F64" s="33"/>
       <c r="G64">
         <v>69.099510700005297</v>
       </c>
@@ -4172,8 +4236,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="29"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="7" t="s">
         <v>20</v>
       </c>
@@ -4183,7 +4247,7 @@
       <c r="E65" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="27"/>
+      <c r="F65" s="33"/>
       <c r="G65">
         <v>32.333898299999397</v>
       </c>
@@ -4198,8 +4262,8 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="29"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="7" t="s">
         <v>22</v>
       </c>
@@ -4209,7 +4273,7 @@
       <c r="E66" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="27"/>
+      <c r="F66" s="33"/>
       <c r="G66">
         <v>53.788557200008597</v>
       </c>
@@ -4224,8 +4288,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="35"/>
       <c r="C67" s="7" t="s">
         <v>20</v>
       </c>
@@ -4235,7 +4299,7 @@
       <c r="E67" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="27"/>
+      <c r="F67" s="33"/>
       <c r="G67">
         <v>184.17984860000399</v>
       </c>
@@ -4250,8 +4314,8 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
-      <c r="B68" s="29"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="7" t="s">
         <v>22</v>
       </c>
@@ -4261,7 +4325,7 @@
       <c r="E68" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F68" s="33">
         <v>3</v>
       </c>
       <c r="G68">
@@ -4278,8 +4342,8 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="27"/>
-      <c r="B69" s="29"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="7" t="s">
         <v>22</v>
       </c>
@@ -4289,7 +4353,7 @@
       <c r="E69" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="27"/>
+      <c r="F69" s="33"/>
       <c r="G69">
         <v>493.66117600000001</v>
       </c>
@@ -4304,8 +4368,8 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="27"/>
-      <c r="B70" s="29"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="7" t="s">
         <v>20</v>
       </c>
@@ -4315,7 +4379,7 @@
       <c r="E70" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="27"/>
+      <c r="F70" s="33"/>
       <c r="G70">
         <v>102.186379</v>
       </c>
@@ -4330,8 +4394,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="27"/>
-      <c r="B71" s="29"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="7" t="s">
         <v>20</v>
       </c>
@@ -4341,7 +4405,7 @@
       <c r="E71" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="27"/>
+      <c r="F71" s="33"/>
       <c r="G71">
         <v>35.5197681</v>
       </c>
@@ -4356,8 +4420,8 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="27"/>
-      <c r="B72" s="29"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="7" t="s">
         <v>22</v>
       </c>
@@ -4367,7 +4431,7 @@
       <c r="E72" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F72" s="27"/>
+      <c r="F72" s="33"/>
       <c r="G72">
         <v>53.333115599999999</v>
       </c>
@@ -4382,8 +4446,8 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="27"/>
-      <c r="B73" s="29"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="7" t="s">
         <v>20</v>
       </c>
@@ -4393,7 +4457,7 @@
       <c r="E73" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="27"/>
+      <c r="F73" s="33"/>
       <c r="G73">
         <v>759.25948800000003</v>
       </c>
@@ -4489,10 +4553,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="36">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -4525,8 +4589,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
@@ -4558,8 +4622,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
@@ -4590,8 +4654,8 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
@@ -4622,8 +4686,8 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
@@ -4654,8 +4718,8 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
@@ -4686,8 +4750,8 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
@@ -4718,8 +4782,8 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
@@ -4750,8 +4814,8 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
@@ -4782,8 +4846,8 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
@@ -4814,8 +4878,8 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
@@ -4846,8 +4910,8 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
@@ -4878,8 +4942,8 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
@@ -4910,8 +4974,8 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
@@ -4942,8 +5006,8 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="6" t="s">
         <v>22</v>
       </c>
@@ -4974,8 +5038,8 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
@@ -5006,8 +5070,8 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
@@ -5038,8 +5102,8 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6" t="s">
         <v>22</v>
       </c>
@@ -5070,8 +5134,8 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6" t="s">
         <v>22</v>
       </c>
@@ -5102,8 +5166,8 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6" t="s">
         <v>22</v>
       </c>
@@ -5134,8 +5198,8 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="6" t="s">
         <v>20</v>
       </c>
@@ -5166,8 +5230,8 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6" t="s">
         <v>20</v>
       </c>
@@ -5198,8 +5262,8 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6" t="s">
         <v>22</v>
       </c>
@@ -5230,8 +5294,8 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6" t="s">
         <v>20</v>
       </c>
@@ -5532,22 +5596,22 @@
       <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="36">
         <v>1</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="36" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="3">
@@ -5569,14 +5633,14 @@
       <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="3">
         <v>14.1605200589983</v>
       </c>
@@ -5596,14 +5660,14 @@
       <c r="O3" s="17"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="3">
         <v>151.392366009997</v>
       </c>
@@ -5623,16 +5687,16 @@
       <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="37">
         <v>2</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="37" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="3">
@@ -5654,14 +5718,14 @@
       <c r="O5" s="25"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="3">
         <v>14.3543406649841</v>
       </c>
@@ -5681,14 +5745,14 @@
       <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="3">
         <v>167.87105353298799</v>
       </c>
@@ -5708,16 +5772,16 @@
       <c r="O7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="36">
         <v>3</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="39" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="3">
@@ -5739,14 +5803,14 @@
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="3">
         <v>13.743750928028</v>
       </c>
@@ -5766,14 +5830,14 @@
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="3">
         <v>147.182807467994</v>
       </c>
@@ -5793,20 +5857,20 @@
       <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="36">
         <v>1</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="36">
         <v>69638089</v>
       </c>
       <c r="G11" s="3">
@@ -5828,14 +5892,14 @@
       <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="3">
         <v>13.944736253994</v>
       </c>
@@ -5855,14 +5919,14 @@
       <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="3">
         <v>144.12987161404399</v>
       </c>
@@ -5882,16 +5946,16 @@
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="37">
         <v>2</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="37" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="3">
@@ -5913,14 +5977,14 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="3">
         <v>15.8145861490047</v>
       </c>
@@ -5940,14 +6004,14 @@
       <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="3">
         <v>154.290160763019</v>
       </c>
@@ -5967,16 +6031,16 @@
       <c r="O16" s="25"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="36">
         <v>3</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="3">
@@ -5998,14 +6062,14 @@
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="3">
         <v>14.7014332</v>
       </c>
@@ -6025,14 +6089,14 @@
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="3">
         <v>8.9724279300000003</v>
       </c>
@@ -6052,20 +6116,20 @@
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="36">
         <v>1</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="36" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="3">
@@ -6087,14 +6151,14 @@
       <c r="O20" s="17"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="3">
         <v>14.3081747</v>
       </c>
@@ -6114,14 +6178,14 @@
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="3">
         <v>82.672329000000005</v>
       </c>
@@ -6141,16 +6205,16 @@
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="37">
         <v>2</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="37" t="s">
         <v>52</v>
       </c>
       <c r="G23" s="3">
@@ -6172,14 +6236,14 @@
       <c r="O23" s="25"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="3">
         <v>13.935029699999999</v>
       </c>
@@ -6199,14 +6263,14 @@
       <c r="O24" s="25"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="3">
         <v>53.1739733</v>
       </c>
@@ -6226,16 +6290,16 @@
       <c r="O25" s="25"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="36">
         <v>3</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="36" t="s">
         <v>53</v>
       </c>
       <c r="G26" s="3">
@@ -6257,14 +6321,14 @@
       <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="3">
         <v>14.2755268</v>
       </c>
@@ -6284,14 +6348,14 @@
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="3">
         <v>58.006263699999998</v>
       </c>
@@ -6311,22 +6375,22 @@
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
+      <c r="A29" s="36">
         <v>1</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="36">
         <v>1</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="38" t="s">
         <v>60</v>
       </c>
       <c r="G29" s="3">
@@ -6348,14 +6412,14 @@
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="32"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="3">
         <v>135.585526263981</v>
       </c>
@@ -6375,14 +6439,14 @@
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="32"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="3">
         <v>994.52015342202503</v>
       </c>
@@ -6402,16 +6466,16 @@
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="37">
         <v>2</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="37" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="3">
@@ -6433,14 +6497,14 @@
       <c r="O32" s="25"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="3">
         <v>143.45529908</v>
       </c>
@@ -6460,14 +6524,14 @@
       <c r="O33" s="25"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="3">
         <v>1054.15672565298</v>
       </c>
@@ -6487,16 +6551,16 @@
       <c r="O34" s="25"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="36">
         <v>3</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="39" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="3">
@@ -6518,14 +6582,14 @@
       <c r="O35" s="17"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="3">
         <v>136.06553299999999</v>
       </c>
@@ -6545,14 +6609,14 @@
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="3">
         <v>1030.57969</v>
       </c>
@@ -6572,20 +6636,20 @@
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="36">
         <v>1</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="36" t="s">
         <v>56</v>
       </c>
       <c r="G38" s="3">
@@ -6607,14 +6671,14 @@
       <c r="O38" s="17"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
       <c r="G39" s="3">
         <v>139.803682780999</v>
       </c>
@@ -6634,14 +6698,14 @@
       <c r="O39" s="17"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
       <c r="G40" s="3">
         <v>937.76541735901196</v>
       </c>
@@ -6661,16 +6725,16 @@
       <c r="O40" s="17"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="37">
         <v>2</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="37" t="s">
         <v>57</v>
       </c>
       <c r="G41" s="3">
@@ -6692,14 +6756,14 @@
       <c r="O41" s="25"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="3">
         <v>138.93720416200799</v>
       </c>
@@ -6719,14 +6783,14 @@
       <c r="O42" s="25"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="3">
         <v>557.50881961203402</v>
       </c>
@@ -6746,16 +6810,16 @@
       <c r="O43" s="25"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="36">
         <v>3</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="36" t="s">
         <v>58</v>
       </c>
       <c r="G44" s="3">
@@ -6777,14 +6841,14 @@
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="3">
         <v>136.94363628997201</v>
       </c>
@@ -6804,14 +6868,14 @@
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="3">
         <v>569.53035333298601</v>
       </c>
@@ -6831,20 +6895,20 @@
       <c r="O46" s="17"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="36">
         <v>1</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="36" t="s">
         <v>59</v>
       </c>
       <c r="G47" s="3">
@@ -6866,14 +6930,14 @@
       <c r="O47" s="17"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="3">
         <v>136.71543104702101</v>
       </c>
@@ -6893,14 +6957,14 @@
       <c r="O48" s="17"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
       <c r="G49" s="3">
         <v>771.56486897799095</v>
       </c>
@@ -6920,16 +6984,16 @@
       <c r="O49" s="17"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="37">
         <v>2</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="37" t="s">
         <v>71</v>
       </c>
       <c r="G50" s="3">
@@ -6951,14 +7015,14 @@
       <c r="O50" s="25"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
       <c r="G51" s="3">
         <v>133.76215766899901</v>
       </c>
@@ -6978,14 +7042,14 @@
       <c r="O51" s="25"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="3">
         <v>460.02056048699802</v>
       </c>
@@ -7005,16 +7069,16 @@
       <c r="O52" s="25"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="36">
         <v>3</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="36" t="s">
         <v>73</v>
       </c>
       <c r="G53" s="3">
@@ -7036,14 +7100,14 @@
       <c r="O53" s="17"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="3">
         <v>142.19209599999999</v>
       </c>
@@ -7063,14 +7127,14 @@
       <c r="O54" s="17"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
       <c r="G55" s="3">
         <v>451.57930900000002</v>
       </c>
@@ -7090,22 +7154,22 @@
       <c r="O55" s="17"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="30">
+      <c r="A56" s="36">
         <v>1</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="36">
         <v>1</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F56" s="36" t="s">
         <v>61</v>
       </c>
       <c r="G56" s="3">
@@ -7127,14 +7191,14 @@
       <c r="O56" s="17"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
       <c r="G57" s="3">
         <v>1324.14579</v>
       </c>
@@ -7154,14 +7218,14 @@
       <c r="O57" s="17"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
       <c r="G58" s="3">
         <v>1263.6989799999999</v>
       </c>
@@ -7181,16 +7245,16 @@
       <c r="O58" s="17"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="37">
         <v>2</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="36" t="s">
         <v>62</v>
       </c>
       <c r="G59" s="3">
@@ -7212,14 +7276,14 @@
       <c r="O59" s="25"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="30"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="36"/>
       <c r="G60" s="3">
         <v>1337.1462100000001</v>
       </c>
@@ -7239,14 +7303,14 @@
       <c r="O60" s="25"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="30"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="36"/>
       <c r="G61" s="3">
         <v>1239.37895</v>
       </c>
@@ -7266,16 +7330,16 @@
       <c r="O61" s="25"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="36">
         <v>3</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G62" s="3">
@@ -7297,14 +7361,14 @@
       <c r="O62" s="17"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="31"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="37"/>
       <c r="G63" s="3">
         <v>1325.36374</v>
       </c>
@@ -7324,14 +7388,14 @@
       <c r="O63" s="17"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="31"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="37"/>
       <c r="G64" s="3">
         <v>1316.13453</v>
       </c>
@@ -7351,20 +7415,20 @@
       <c r="O64" s="17"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30" t="s">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="30">
+      <c r="E65" s="36">
         <v>1</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F65" s="36" t="s">
         <v>64</v>
       </c>
       <c r="G65" s="3">
@@ -7386,14 +7450,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
       <c r="G66" s="3">
         <v>1360.3326500000001</v>
       </c>
@@ -7413,14 +7477,14 @@
       <c r="O66" s="17"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
       <c r="G67" s="3">
         <v>1617.94694</v>
       </c>
@@ -7440,16 +7504,16 @@
       <c r="O67" s="17"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
       <c r="D68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="37">
         <v>2</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="36" t="s">
         <v>65</v>
       </c>
       <c r="G68" s="3">
@@ -7471,14 +7535,14 @@
       <c r="O68" s="25"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="30"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="36"/>
       <c r="G69" s="3">
         <v>1375.1419900000001</v>
       </c>
@@ -7498,14 +7562,14 @@
       <c r="O69" s="25"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
       <c r="D70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="30"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="36"/>
       <c r="G70" s="3">
         <v>1604.15642</v>
       </c>
@@ -7525,16 +7589,16 @@
       <c r="O70" s="25"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
       <c r="D71" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="36">
         <v>3</v>
       </c>
-      <c r="F71" s="31" t="s">
+      <c r="F71" s="37" t="s">
         <v>66</v>
       </c>
       <c r="G71" s="3">
@@ -7556,14 +7620,14 @@
       <c r="O71" s="17"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
       <c r="D72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="31"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="37"/>
       <c r="G72" s="3">
         <v>1443.8668500000001</v>
       </c>
@@ -7583,14 +7647,14 @@
       <c r="O72" s="17"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
       <c r="D73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="31"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="37"/>
       <c r="G73" s="3">
         <v>1223.54069</v>
       </c>
@@ -7610,20 +7674,20 @@
       <c r="O73" s="17"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30" t="s">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="30">
+      <c r="E74" s="36">
         <v>1</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="39" t="s">
         <v>67</v>
       </c>
       <c r="G74" s="3">
@@ -7645,14 +7709,14 @@
       <c r="O74" s="17"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
       <c r="D75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
       <c r="G75" s="3">
         <v>1535.6609000000001</v>
       </c>
@@ -7672,14 +7736,14 @@
       <c r="O75" s="17"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
       <c r="D76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
       <c r="G76" s="3">
         <v>869.39322400000003</v>
       </c>
@@ -7699,16 +7763,16 @@
       <c r="O76" s="17"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="31">
+      <c r="E77" s="37">
         <v>2</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="36" t="s">
         <v>74</v>
       </c>
       <c r="G77" s="3">
@@ -7730,14 +7794,14 @@
       <c r="O77" s="25"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
       <c r="D78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="30"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="36"/>
       <c r="G78" s="3">
         <v>1353.8020100000001</v>
       </c>
@@ -7757,14 +7821,14 @@
       <c r="O78" s="25"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="30"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="36"/>
       <c r="G79" s="3">
         <v>934.655933</v>
       </c>
@@ -7784,16 +7848,16 @@
       <c r="O79" s="25"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
       <c r="D80" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="30">
+      <c r="E80" s="36">
         <v>3</v>
       </c>
-      <c r="F80" s="30" t="s">
+      <c r="F80" s="36" t="s">
         <v>68</v>
       </c>
       <c r="G80" s="3">
@@ -7815,14 +7879,14 @@
       <c r="O80" s="17"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
       <c r="D81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
       <c r="G81" s="3">
         <v>1678.7888600000001</v>
       </c>
@@ -7842,14 +7906,14 @@
       <c r="O81" s="17"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
       <c r="D82" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
       <c r="G82" s="3">
         <v>969.77034500000002</v>
       </c>
@@ -7869,22 +7933,22 @@
       <c r="O82" s="17"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" s="30">
+      <c r="A83" s="36">
         <v>1</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>44</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="30">
+      <c r="E83" s="36">
         <v>1</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G83" s="3">
@@ -7896,19 +7960,19 @@
       <c r="I83" s="3">
         <v>9.9826499999999999E-2</v>
       </c>
-      <c r="J83" s="38">
+      <c r="J83" s="27">
         <v>444583</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
       <c r="D84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
       <c r="G84" s="3">
         <v>13397.115430411999</v>
       </c>
@@ -7923,14 +7987,14 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
       <c r="D85" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
       <c r="G85" s="3">
         <v>8431.2620896680692</v>
       </c>
@@ -7945,16 +8009,16 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
       <c r="D86" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="31">
+      <c r="E86" s="37">
         <v>2</v>
       </c>
-      <c r="F86" s="33" t="s">
+      <c r="F86" s="39" t="s">
         <v>76</v>
       </c>
       <c r="G86" s="3">
@@ -7966,19 +8030,19 @@
       <c r="I86" s="3">
         <v>0</v>
       </c>
-      <c r="J86" s="38">
+      <c r="J86" s="27">
         <v>444583</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
       <c r="D87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="30"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="36"/>
       <c r="G87" s="3">
         <v>13728.4467993819</v>
       </c>
@@ -7993,14 +8057,14 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="30"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="36"/>
       <c r="G88" s="3">
         <v>8977.8839493480009</v>
       </c>
@@ -8015,16 +8079,16 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
       <c r="D89" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="30">
+      <c r="E89" s="36">
         <v>3</v>
       </c>
-      <c r="F89" s="31" t="s">
+      <c r="F89" s="37" t="s">
         <v>77</v>
       </c>
       <c r="G89" s="3">
@@ -8036,19 +8100,19 @@
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="38">
+      <c r="J89" s="27">
         <v>444583</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
       <c r="D90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="30"/>
-      <c r="F90" s="31"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="37"/>
       <c r="G90" s="3">
         <v>13709.4894</v>
       </c>
@@ -8063,14 +8127,14 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" s="30"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="30"/>
-      <c r="F91" s="31"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="37"/>
       <c r="G91" s="3">
         <v>9209.4228399999993</v>
       </c>
@@ -8085,20 +8149,20 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>44</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="30">
+      <c r="E92" s="36">
         <v>1</v>
       </c>
-      <c r="F92" s="30" t="s">
+      <c r="F92" s="36" t="s">
         <v>78</v>
       </c>
       <c r="G92" s="3">
@@ -8110,19 +8174,19 @@
       <c r="I92" s="3">
         <v>0</v>
       </c>
-      <c r="J92" s="38">
+      <c r="J92" s="27">
         <v>438666</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
       <c r="G93" s="3">
         <v>296.97463599999998</v>
       </c>
@@ -8137,14 +8201,14 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
       <c r="G94" s="3">
         <v>1183.7641599999999</v>
       </c>
@@ -8159,16 +8223,16 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
       <c r="D95" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="31">
+      <c r="E95" s="37">
         <v>2</v>
       </c>
-      <c r="F95" s="30" t="s">
+      <c r="F95" s="36" t="s">
         <v>79</v>
       </c>
       <c r="G95" s="3">
@@ -8180,19 +8244,19 @@
       <c r="I95" s="3">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="J95" s="38">
+      <c r="J95" s="27">
         <v>438666</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
       <c r="D96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="31"/>
-      <c r="F96" s="30"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="36"/>
       <c r="G96" s="3">
         <v>309.51980800000001</v>
       </c>
@@ -8207,14 +8271,14 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
       <c r="D97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="31"/>
-      <c r="F97" s="30"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="36"/>
       <c r="G97" s="3">
         <v>1371.4509499999999</v>
       </c>
@@ -8229,16 +8293,16 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
       <c r="D98" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="30">
+      <c r="E98" s="36">
         <v>3</v>
       </c>
-      <c r="F98" s="31" t="s">
+      <c r="F98" s="37" t="s">
         <v>80</v>
       </c>
       <c r="G98" s="3">
@@ -8250,19 +8314,19 @@
       <c r="I98" s="3">
         <v>1.565E-3</v>
       </c>
-      <c r="J98" s="38">
+      <c r="J98" s="27">
         <v>438666</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="30"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
       <c r="D99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E99" s="30"/>
-      <c r="F99" s="31"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="37"/>
       <c r="G99" s="3">
         <v>316.58371</v>
       </c>
@@ -8277,14 +8341,14 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
       <c r="D100" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="30"/>
-      <c r="F100" s="31"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="37"/>
       <c r="G100" s="3">
         <v>1171.1716100000001</v>
       </c>
@@ -8299,20 +8363,20 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30" t="s">
+      <c r="A101" s="36"/>
+      <c r="B101" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C101" s="40" t="s">
         <v>44</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="30">
+      <c r="E101" s="36">
         <v>1</v>
       </c>
-      <c r="F101" s="33" t="s">
+      <c r="F101" s="39" t="s">
         <v>69</v>
       </c>
       <c r="G101" s="3">
@@ -8329,14 +8393,14 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
       <c r="D102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
       <c r="G102" s="3">
         <v>19113.426299999999</v>
       </c>
@@ -8351,14 +8415,14 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="30"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
       <c r="D103" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
       <c r="G103" s="3">
         <v>8769.1954499999993</v>
       </c>
@@ -8373,16 +8437,16 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="30"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
       <c r="D104" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="31">
+      <c r="E104" s="37">
         <v>2</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F104" s="36" t="s">
         <v>81</v>
       </c>
       <c r="G104" s="3">
@@ -8394,19 +8458,19 @@
       <c r="I104" s="3">
         <v>9.9415500000000004E-2</v>
       </c>
-      <c r="J104" s="38">
+      <c r="J104" s="27">
         <v>444582</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="30"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
       <c r="D105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="30"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="36"/>
       <c r="G105" s="3">
         <v>17709.027900000001</v>
       </c>
@@ -8421,14 +8485,14 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
       <c r="D106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="31"/>
-      <c r="F106" s="30"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="36"/>
       <c r="G106" s="3">
         <v>9547.8684400000002</v>
       </c>
@@ -8443,16 +8507,16 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
       <c r="D107" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="30">
+      <c r="E107" s="36">
         <v>3</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="36" t="s">
         <v>70</v>
       </c>
       <c r="G107" s="3">
@@ -8469,14 +8533,14 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
       <c r="D108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
       <c r="G108" s="3">
         <v>13209.852500000001</v>
       </c>
@@ -8491,14 +8555,14 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
       <c r="D109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
       <c r="G109" s="3">
         <v>9106.2262599999995</v>
       </c>
@@ -8513,220 +8577,220 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
+      <c r="A110" s="35"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="35"/>
       <c r="D110" s="24"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="37"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="43"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="29"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
       <c r="D111" s="24"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="37"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="43"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
       <c r="D112" s="24"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="37"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="43"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="29"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
       <c r="D113" s="24"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="29"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="35"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="29"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
       <c r="D114" s="24"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="29"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="35"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="29"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
       <c r="D115" s="24"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="29"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="35"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="29"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
       <c r="D116" s="24"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="36"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="42"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="29"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
       <c r="D117" s="24"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="36"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="42"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="29"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
       <c r="D118" s="24"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="36"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="42"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="29"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
       <c r="D119" s="24"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="29"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
       <c r="D120" s="24"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="29"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
+      <c r="A121" s="35"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
       <c r="D121" s="24"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="29"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
       <c r="D122" s="24"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="29"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="35"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="29"/>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
       <c r="D123" s="24"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="29"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="35"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="29"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
       <c r="D124" s="24"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="29"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="35"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="29"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
       <c r="D125" s="24"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="36"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="42"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="29"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
       <c r="D126" s="24"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="36"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="42"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
       <c r="D127" s="24"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="36"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="42"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
       <c r="D128" s="24"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="41"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="29"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
       <c r="D129" s="24"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="29"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
       <c r="D130" s="24"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="29"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
       <c r="D131" s="24"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="29"/>
+      <c r="E131" s="42"/>
+      <c r="F131" s="35"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
-      <c r="C132" s="29"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="35"/>
       <c r="D132" s="24"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="29"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="35"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="35"/>
       <c r="D133" s="24"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="29"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="35"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="35"/>
       <c r="D134" s="24"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="37"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="43"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
       <c r="D135" s="24"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="37"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="43"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="29"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
+      <c r="A136" s="35"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="35"/>
       <c r="D136" s="24"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="37"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="125">
@@ -8869,7 +8933,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D28" sqref="D28:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8910,18 +8974,18 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="28" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -8943,15 +9007,15 @@
         <f>AVERAGE(exp2_details!J2,exp2_details!J5,exp2_details!J8)</f>
         <v>446.23399999999998</v>
       </c>
-      <c r="I2" s="39">
-        <f>(F2/1000)</f>
+      <c r="I2" s="28">
+        <f t="shared" ref="I2:I10" si="0">(F2/1000)</f>
         <v>4.934976666666666E-5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
@@ -8971,15 +9035,15 @@
         <f>AVERAGE(exp2_details!J3,exp2_details!J6,exp2_details!J9)</f>
         <v>28.515625</v>
       </c>
-      <c r="I3" s="39">
-        <f>(F3/1000)</f>
+      <c r="I3" s="28">
+        <f t="shared" si="0"/>
         <v>1.3437450298806565E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
@@ -8999,17 +9063,17 @@
         <f>AVERAGE(exp2_details!J4,exp2_details!J7,exp2_details!J10)</f>
         <v>4805.135416666667</v>
       </c>
-      <c r="I4" s="39">
-        <f>(F4/1000)</f>
+      <c r="I4" s="28">
+        <f t="shared" si="0"/>
         <v>2.8905264868323331E-4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -9031,15 +9095,15 @@
         <f>AVERAGE(exp2_details!J5,exp2_details!J8,exp2_details!J11)</f>
         <v>444.07266666666663</v>
       </c>
-      <c r="I5" s="39">
-        <f>(F5/1000)</f>
+      <c r="I5" s="28">
+        <f t="shared" si="0"/>
         <v>4.7729466666666664E-5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
@@ -9059,15 +9123,15 @@
         <f>AVERAGE(exp2_details!J6,exp2_details!J9,exp2_details!J12)</f>
         <v>28.515625</v>
       </c>
-      <c r="I6" s="39">
-        <f>(F6/1000)</f>
+      <c r="I6" s="28">
+        <f t="shared" si="0"/>
         <v>1.3734757533529699E-4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
@@ -9087,17 +9151,17 @@
         <f>AVERAGE(exp2_details!J7,exp2_details!J10,exp2_details!J13)</f>
         <v>4767.96875</v>
       </c>
-      <c r="I7" s="39">
-        <f>(F7/1000)</f>
+      <c r="I7" s="28">
+        <f t="shared" si="0"/>
         <v>2.7525479067116906E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -9119,15 +9183,15 @@
         <f>AVERAGE(exp2_details!J8,exp2_details!J11,exp2_details!J14)</f>
         <v>441.91133333333329</v>
       </c>
-      <c r="I8" s="39">
-        <f>(F8/1000)</f>
+      <c r="I8" s="28">
+        <f t="shared" si="0"/>
         <v>6.0155699999999997E-5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
@@ -9147,15 +9211,15 @@
         <f>AVERAGE(exp2_details!J9,exp2_details!J12,exp2_details!J15)</f>
         <v>28.515625</v>
       </c>
-      <c r="I9" s="39">
-        <f>(F9/1000)</f>
+      <c r="I9" s="28">
+        <f t="shared" si="0"/>
         <v>1.3824949134141131E-4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9175,17 +9239,17 @@
         <f>AVERAGE(exp2_details!J10,exp2_details!J13,exp2_details!J16)</f>
         <v>4424.9921875</v>
       </c>
-      <c r="I10" s="39">
-        <f>(F10/1000)</f>
+      <c r="I10" s="28">
+        <f t="shared" si="0"/>
         <v>2.7348688365115396E-4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -9207,15 +9271,15 @@
         <f>AVERAGE(exp2_details!J29,exp2_details!J32,exp2_details!J35)</f>
         <v>4438.66</v>
       </c>
-      <c r="I11" s="39">
-        <f>(F11/10000)</f>
+      <c r="I11" s="28">
+        <f t="shared" ref="I11:I19" si="1">(F11/10000)</f>
         <v>5.7449399999999992E-5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
@@ -9235,15 +9299,15 @@
         <f>AVERAGE(exp2_details!J30,exp2_details!J33,exp2_details!J36)</f>
         <v>28.515625</v>
       </c>
-      <c r="I12" s="39">
-        <f>(F12/10000)</f>
+      <c r="I12" s="28">
+        <f t="shared" si="1"/>
         <v>1.2080583893310599E-4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
@@ -9263,17 +9327,17 @@
         <f>AVERAGE(exp2_details!J31,exp2_details!J34,exp2_details!J37)</f>
         <v>29735.898454166669</v>
       </c>
-      <c r="I13" s="39">
-        <f>(F13/10000)</f>
+      <c r="I13" s="28">
+        <f t="shared" si="1"/>
         <v>2.7968091586692698E-4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -9295,15 +9359,15 @@
         <f>AVERAGE(exp2_details!J38,exp2_details!J41,exp2_details!J44)</f>
         <v>4377.24</v>
       </c>
-      <c r="I14" s="39">
-        <f>(F14/10000)</f>
+      <c r="I14" s="28">
+        <f t="shared" si="1"/>
         <v>5.9976266666666657E-5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
@@ -9323,15 +9387,15 @@
         <f>AVERAGE(exp2_details!J39,exp2_details!J42,exp2_details!J45)</f>
         <v>28.515625</v>
       </c>
-      <c r="I15" s="39">
-        <f>(F15/10000)</f>
+      <c r="I15" s="28">
+        <f t="shared" si="1"/>
         <v>1.2110876530059566E-4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
@@ -9351,17 +9415,17 @@
         <f>AVERAGE(exp2_details!J40,exp2_details!J43,exp2_details!J46)</f>
         <v>20226.9453125</v>
       </c>
-      <c r="I16" s="39">
-        <f>(F16/10000)</f>
+      <c r="I16" s="28">
+        <f t="shared" si="1"/>
         <v>2.716886527681096E-4</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -9383,15 +9447,15 @@
         <f>AVERAGE(exp2_details!J47,exp2_details!J50,exp2_details!J53)</f>
         <v>4437.3</v>
       </c>
-      <c r="I17" s="39">
-        <f>(F17/10000)</f>
+      <c r="I17" s="28">
+        <f t="shared" si="1"/>
         <v>6.5824866666666654E-5</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
@@ -9411,15 +9475,15 @@
         <f>AVERAGE(exp2_details!J48,exp2_details!J51,exp2_details!J54)</f>
         <v>28.515625</v>
       </c>
-      <c r="I18" s="39">
-        <f>(F18/10000)</f>
+      <c r="I18" s="28">
+        <f t="shared" si="1"/>
         <v>1.1726889423228366E-4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
@@ -9439,17 +9503,17 @@
         <f>AVERAGE(exp2_details!J49,exp2_details!J52,exp2_details!J55)</f>
         <v>15838.604179166667</v>
       </c>
-      <c r="I19" s="39">
-        <f>(F19/10000)</f>
+      <c r="I19" s="28">
+        <f t="shared" si="1"/>
         <v>2.6468370120246766E-4</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="33" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -9471,15 +9535,15 @@
         <f>AVERAGE(exp2_details!J56,exp2_details!J59,exp2_details!J62)</f>
         <v>44346.9</v>
       </c>
-      <c r="I20" s="39">
-        <f>(F20/100000)</f>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20:I28" si="2">(F20/100000)</f>
         <v>6.627263333333332E-5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
@@ -9499,15 +9563,15 @@
         <f>AVERAGE(exp2_details!J57,exp2_details!J60,exp2_details!J63)</f>
         <v>28.515625</v>
       </c>
-      <c r="I21" s="39">
-        <f>(F21/100000)</f>
+      <c r="I21" s="28">
+        <f t="shared" si="2"/>
         <v>1.11058714E-4</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
@@ -9527,17 +9591,17 @@
         <f>AVERAGE(exp2_details!J58,exp2_details!J61,exp2_details!J64)</f>
         <v>17979.096366666665</v>
       </c>
-      <c r="I22" s="39">
-        <f>(F22/100000)</f>
+      <c r="I22" s="28">
+        <f t="shared" si="2"/>
         <v>2.6041967666666667E-4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="33" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -9559,15 +9623,15 @@
         <f>AVERAGE(exp2_details!J65,exp2_details!J68,exp2_details!J71)</f>
         <v>43745.599999999999</v>
       </c>
-      <c r="I23" s="39">
-        <f>(F23/100000)</f>
+      <c r="I23" s="28">
+        <f t="shared" si="2"/>
         <v>6.5284433333333321E-5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
@@ -9587,15 +9651,15 @@
         <f>AVERAGE(exp2_details!J66,exp2_details!J69,exp2_details!J72)</f>
         <v>28.515625</v>
       </c>
-      <c r="I24" s="39">
-        <f>(F24/100000)</f>
+      <c r="I24" s="28">
+        <f t="shared" si="2"/>
         <v>1.081866735E-4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
@@ -9615,17 +9679,17 @@
         <f>AVERAGE(exp2_details!J67,exp2_details!J70,exp2_details!J73)</f>
         <v>25438.752633333334</v>
       </c>
-      <c r="I25" s="39">
-        <f>(F25/100000)</f>
+      <c r="I25" s="28">
+        <f t="shared" si="2"/>
         <v>2.4541677366666663E-4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -9647,15 +9711,15 @@
         <f>AVERAGE(exp2_details!J74,exp2_details!J77,exp2_details!J80)</f>
         <v>44345.5</v>
       </c>
-      <c r="I26" s="39">
-        <f>(F26/100000)</f>
+      <c r="I26" s="28">
+        <f t="shared" si="2"/>
         <v>6.0954433333333327E-5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
@@ -9675,15 +9739,15 @@
         <f>AVERAGE(exp2_details!J75,exp2_details!J78,exp2_details!J81)</f>
         <v>28.515625</v>
       </c>
-      <c r="I27" s="39">
-        <f>(F27/100000)</f>
+      <c r="I27" s="28">
+        <f t="shared" si="2"/>
         <v>1.1537362133333332E-4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="1" t="s">
         <v>12</v>
       </c>
@@ -9703,17 +9767,17 @@
         <f>AVERAGE(exp2_details!J76,exp2_details!J79,exp2_details!J82)</f>
         <v>2846.7031243333331</v>
       </c>
-      <c r="I28" s="39">
-        <f>(F28/100000)</f>
+      <c r="I28" s="28">
+        <f t="shared" si="2"/>
         <v>2.6049262166666663E-4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="33" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -9735,15 +9799,15 @@
         <f>AVERAGE(exp2_details!J83,exp2_details!J86,exp2_details!J89)</f>
         <v>444583</v>
       </c>
-      <c r="I29" s="39">
-        <f>(F29/1000000)</f>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I37" si="3">(F29/1000000)</f>
         <v>6.6559166666666671E-5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
@@ -9763,15 +9827,15 @@
         <f>AVERAGE(exp2_details!J84,exp2_details!J87,exp2_details!J90)</f>
         <v>28.515625</v>
       </c>
-      <c r="I30" s="39">
-        <f>(F30/1000000)</f>
+      <c r="I30" s="28">
+        <f t="shared" si="3"/>
         <v>1.2097411219667301E-4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
@@ -9791,17 +9855,17 @@
         <f>AVERAGE(exp2_details!J85,exp2_details!J88,exp2_details!J91)</f>
         <v>16862.466162500001</v>
       </c>
-      <c r="I31" s="39">
-        <f>(F31/1000000)</f>
+      <c r="I31" s="28">
+        <f t="shared" si="3"/>
         <v>2.7263537246997768E-4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="33" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -9823,15 +9887,15 @@
         <f>AVERAGE(exp2_details!J92,exp2_details!J95,exp2_details!J98)</f>
         <v>438666</v>
       </c>
-      <c r="I32" s="39">
-        <f>(F32/1000000)</f>
+      <c r="I32" s="28">
+        <f t="shared" si="3"/>
         <v>6.7284233333333315E-5</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
@@ -9851,15 +9915,15 @@
         <f>AVERAGE(exp2_details!J93,exp2_details!J96,exp2_details!J99)</f>
         <v>28.515625</v>
       </c>
-      <c r="I33" s="39">
-        <f>(F33/1000000)</f>
+      <c r="I33" s="28">
+        <f t="shared" si="3"/>
         <v>1.7533770666666669E-4</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
@@ -9879,17 +9943,17 @@
         <f>AVERAGE(exp2_details!J94,exp2_details!J97,exp2_details!J100)</f>
         <v>6293.4609400000008</v>
       </c>
-      <c r="I34" s="39">
-        <f>(F34/1000000)</f>
+      <c r="I34" s="28">
+        <f t="shared" si="3"/>
         <v>4.3826159100000003E-4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -9911,15 +9975,15 @@
         <f>AVERAGE(exp2_details!J101,exp2_details!J104,exp2_details!J107)</f>
         <v>331630.45566666668</v>
       </c>
-      <c r="I35" s="39">
-        <f>(F35/1000000)</f>
+      <c r="I35" s="28">
+        <f t="shared" si="3"/>
         <v>6.7681064666666666E-5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
@@ -9939,15 +10003,15 @@
         <f>AVERAGE(exp2_details!J102,exp2_details!J105,exp2_details!J108)</f>
         <v>28.515625</v>
       </c>
-      <c r="I36" s="39">
-        <f>(F36/1000000)</f>
+      <c r="I36" s="28">
+        <f t="shared" si="3"/>
         <v>1.1699595033333332E-4</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
@@ -9967,8 +10031,8 @@
         <f>AVERAGE(exp2_details!J103,exp2_details!J106,exp2_details!J109)</f>
         <v>22271.856766666664</v>
       </c>
-      <c r="I37" s="39">
-        <f>(F37/1000000)</f>
+      <c r="I37" s="28">
+        <f t="shared" si="3"/>
         <v>2.6576898099999998E-4</v>
       </c>
     </row>
@@ -10009,8 +10073,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C65B17-69F2-A143-B30A-D1D5D86960F5}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10021,18 +10085,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -10049,10 +10113,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
+      <c r="A4" s="36">
         <v>1000</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -10064,8 +10128,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="26" t="s">
         <v>86</v>
       </c>
@@ -10075,8 +10139,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -10088,8 +10152,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="26" t="s">
         <v>86</v>
       </c>
@@ -10099,8 +10163,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -10112,8 +10176,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="26" t="s">
         <v>86</v>
       </c>
@@ -10123,10 +10187,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+      <c r="A10" s="36">
         <v>10000</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -10138,8 +10202,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="26" t="s">
         <v>86</v>
       </c>
@@ -10149,8 +10213,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -10162,8 +10226,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="26" t="s">
         <v>86</v>
       </c>
@@ -10173,8 +10237,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -10186,8 +10250,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="26" t="s">
         <v>86</v>
       </c>
@@ -10197,10 +10261,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+      <c r="A16" s="36">
         <v>100000</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -10212,8 +10276,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="26" t="s">
         <v>86</v>
       </c>
@@ -10223,8 +10287,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -10236,8 +10300,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="26" t="s">
         <v>86</v>
       </c>
@@ -10247,8 +10311,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -10260,8 +10324,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="26" t="s">
         <v>86</v>
       </c>
@@ -10271,10 +10335,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
+      <c r="A22" s="36">
         <v>1000000</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -10286,8 +10350,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="26" t="s">
         <v>86</v>
       </c>
@@ -10297,8 +10361,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -10310,8 +10374,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="26" t="s">
         <v>86</v>
       </c>
@@ -10321,8 +10385,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="26" t="s">
@@ -10334,8 +10398,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="26" t="s">
         <v>86</v>
       </c>
@@ -10345,18 +10409,18 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
@@ -10365,13 +10429,13 @@
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="29" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
+      <c r="A32" s="36">
         <v>1000</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -10384,7 +10448,7 @@
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="22" t="s">
         <v>85</v>
       </c>
@@ -10395,7 +10459,7 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="26" t="s">
         <v>86</v>
       </c>
@@ -10406,7 +10470,7 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="30">
+      <c r="A35" s="36">
         <v>10000</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -10419,7 +10483,7 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="22" t="s">
         <v>85</v>
       </c>
@@ -10430,7 +10494,7 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="26" t="s">
         <v>86</v>
       </c>
@@ -10441,7 +10505,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
+      <c r="A38" s="36">
         <v>100000</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -10454,7 +10518,7 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="22" t="s">
         <v>85</v>
       </c>
@@ -10465,7 +10529,7 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="26" t="s">
         <v>86</v>
       </c>
@@ -10476,7 +10540,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
+      <c r="A41" s="36">
         <v>1000000</v>
       </c>
       <c r="B41" s="22" t="s">
@@ -10489,7 +10553,7 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="22" t="s">
         <v>85</v>
       </c>
@@ -10500,7 +10564,7 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="26" t="s">
         <v>86</v>
       </c>
@@ -10537,4 +10601,269 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DFBE54-4D66-9D41-8B2D-85207E2CB621}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="33">
+        <v>334.83626520000001</v>
+      </c>
+      <c r="C2">
+        <v>50753.497807879903</v>
+      </c>
+      <c r="D2" s="28">
+        <v>21269863958.383801</v>
+      </c>
+      <c r="E2">
+        <v>8836.8671875</v>
+      </c>
+      <c r="G2" s="33">
+        <f>SUM(C2:C11)*1000/190000000</f>
+        <v>2.6504692231739293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3">
+        <v>49880.734050367901</v>
+      </c>
+      <c r="D3" s="28">
+        <v>16647532223.003401</v>
+      </c>
+      <c r="E3">
+        <v>8836.8671875</v>
+      </c>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4">
+        <v>50632.480565926897</v>
+      </c>
+      <c r="D4" s="28">
+        <v>5356444602.0320396</v>
+      </c>
+      <c r="E4">
+        <v>8836.8671875</v>
+      </c>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5">
+        <v>49850.349150124901</v>
+      </c>
+      <c r="D5" s="28">
+        <v>14764391622.511801</v>
+      </c>
+      <c r="E5">
+        <v>8836.8671875</v>
+      </c>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6">
+        <v>50329.191327385</v>
+      </c>
+      <c r="D6" s="28">
+        <v>7088005140.2020197</v>
+      </c>
+      <c r="E6">
+        <v>8836.8671875</v>
+      </c>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7">
+        <v>50784.991176659998</v>
+      </c>
+      <c r="D7" s="28">
+        <v>4393279612.2337198</v>
+      </c>
+      <c r="E7">
+        <v>8836.8671875</v>
+      </c>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8">
+        <v>50523.308204430999</v>
+      </c>
+      <c r="D8" s="28">
+        <v>54400905362.069702</v>
+      </c>
+      <c r="E8">
+        <v>8836.8671875</v>
+      </c>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9">
+        <v>51002.657220270899</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1012057115731.3199</v>
+      </c>
+      <c r="E9">
+        <v>8836.8671875</v>
+      </c>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10">
+        <v>50165.0651</v>
+      </c>
+      <c r="D10" s="32">
+        <v>422190000000</v>
+      </c>
+      <c r="E10">
+        <v>8836.8671900000008</v>
+      </c>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11">
+        <v>49666.877800000002</v>
+      </c>
+      <c r="D11" s="28">
+        <v>8692933774</v>
+      </c>
+      <c r="E11">
+        <v>8836.8671900000008</v>
+      </c>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="31">
+        <v>26356.461546099999</v>
+      </c>
+      <c r="C12">
+        <v>66284</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>9691186380.7999992</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(C12)*1000/190000000</f>
+        <v>0.34886315789473682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="G2:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/report/experiments/1d_complete.xlsx
+++ b/report/experiments/1d_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/QVO/code/xzyao/projects/index/msc-project/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{95A643E8-B89D-8E47-9E44-E74B4CAA36BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CE11A2D9-EADA-0144-BFCE-405CA3A05C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,10 +992,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1004,14 +1010,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5693,10 +5693,10 @@
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="38">
         <v>2</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="38" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="3">
@@ -5724,8 +5724,8 @@
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="3">
         <v>14.3543406649841</v>
       </c>
@@ -5751,8 +5751,8 @@
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="3">
         <v>167.87105353298799</v>
       </c>
@@ -5781,7 +5781,7 @@
       <c r="E8" s="36">
         <v>3</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="41" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="3">
@@ -5952,10 +5952,10 @@
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="38">
         <v>2</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="38" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="3">
@@ -5983,8 +5983,8 @@
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="3">
         <v>15.8145861490047</v>
       </c>
@@ -6010,8 +6010,8 @@
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="3">
         <v>154.290160763019</v>
       </c>
@@ -6211,10 +6211,10 @@
       <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="38">
         <v>2</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="38" t="s">
         <v>52</v>
       </c>
       <c r="G23" s="3">
@@ -6242,8 +6242,8 @@
       <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="3">
         <v>13.935029699999999</v>
       </c>
@@ -6269,8 +6269,8 @@
       <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="3">
         <v>53.1739733</v>
       </c>
@@ -6390,7 +6390,7 @@
       <c r="E29" s="36">
         <v>1</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="43" t="s">
         <v>60</v>
       </c>
       <c r="G29" s="3">
@@ -6419,7 +6419,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="36"/>
-      <c r="F30" s="38"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="3">
         <v>135.585526263981</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="36"/>
-      <c r="F31" s="38"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="3">
         <v>994.52015342202503</v>
       </c>
@@ -6472,10 +6472,10 @@
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="38">
         <v>2</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="38" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="3">
@@ -6503,8 +6503,8 @@
       <c r="D33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="3">
         <v>143.45529908</v>
       </c>
@@ -6530,8 +6530,8 @@
       <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="3">
         <v>1054.15672565298</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="E35" s="36">
         <v>3</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="41" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="3">
@@ -6731,10 +6731,10 @@
       <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="38">
         <v>2</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="38" t="s">
         <v>57</v>
       </c>
       <c r="G41" s="3">
@@ -6762,8 +6762,8 @@
       <c r="D42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
       <c r="G42" s="3">
         <v>138.93720416200799</v>
       </c>
@@ -6789,8 +6789,8 @@
       <c r="D43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
       <c r="G43" s="3">
         <v>557.50881961203402</v>
       </c>
@@ -6990,10 +6990,10 @@
       <c r="D50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="38">
         <v>2</v>
       </c>
-      <c r="F50" s="37" t="s">
+      <c r="F50" s="38" t="s">
         <v>71</v>
       </c>
       <c r="G50" s="3">
@@ -7021,8 +7021,8 @@
       <c r="D51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
       <c r="G51" s="3">
         <v>133.76215766899901</v>
       </c>
@@ -7048,8 +7048,8 @@
       <c r="D52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
       <c r="G52" s="3">
         <v>460.02056048699802</v>
       </c>
@@ -7251,7 +7251,7 @@
       <c r="D59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E59" s="38">
         <v>2</v>
       </c>
       <c r="F59" s="36" t="s">
@@ -7282,7 +7282,7 @@
       <c r="D60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="37"/>
+      <c r="E60" s="38"/>
       <c r="F60" s="36"/>
       <c r="G60" s="3">
         <v>1337.1462100000001</v>
@@ -7309,7 +7309,7 @@
       <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="37"/>
+      <c r="E61" s="38"/>
       <c r="F61" s="36"/>
       <c r="G61" s="3">
         <v>1239.37895</v>
@@ -7339,7 +7339,7 @@
       <c r="E62" s="36">
         <v>3</v>
       </c>
-      <c r="F62" s="37" t="s">
+      <c r="F62" s="38" t="s">
         <v>63</v>
       </c>
       <c r="G62" s="3">
@@ -7368,7 +7368,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="36"/>
-      <c r="F63" s="37"/>
+      <c r="F63" s="38"/>
       <c r="G63" s="3">
         <v>1325.36374</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>12</v>
       </c>
       <c r="E64" s="36"/>
-      <c r="F64" s="37"/>
+      <c r="F64" s="38"/>
       <c r="G64" s="3">
         <v>1316.13453</v>
       </c>
@@ -7510,7 +7510,7 @@
       <c r="D68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="38">
         <v>2</v>
       </c>
       <c r="F68" s="36" t="s">
@@ -7541,7 +7541,7 @@
       <c r="D69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="37"/>
+      <c r="E69" s="38"/>
       <c r="F69" s="36"/>
       <c r="G69" s="3">
         <v>1375.1419900000001</v>
@@ -7568,7 +7568,7 @@
       <c r="D70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="37"/>
+      <c r="E70" s="38"/>
       <c r="F70" s="36"/>
       <c r="G70" s="3">
         <v>1604.15642</v>
@@ -7598,7 +7598,7 @@
       <c r="E71" s="36">
         <v>3</v>
       </c>
-      <c r="F71" s="37" t="s">
+      <c r="F71" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G71" s="3">
@@ -7627,7 +7627,7 @@
         <v>11</v>
       </c>
       <c r="E72" s="36"/>
-      <c r="F72" s="37"/>
+      <c r="F72" s="38"/>
       <c r="G72" s="3">
         <v>1443.8668500000001</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="36"/>
-      <c r="F73" s="37"/>
+      <c r="F73" s="38"/>
       <c r="G73" s="3">
         <v>1223.54069</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="E74" s="36">
         <v>1</v>
       </c>
-      <c r="F74" s="39" t="s">
+      <c r="F74" s="41" t="s">
         <v>67</v>
       </c>
       <c r="G74" s="3">
@@ -7769,7 +7769,7 @@
       <c r="D77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="37">
+      <c r="E77" s="38">
         <v>2</v>
       </c>
       <c r="F77" s="36" t="s">
@@ -7800,7 +7800,7 @@
       <c r="D78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="37"/>
+      <c r="E78" s="38"/>
       <c r="F78" s="36"/>
       <c r="G78" s="3">
         <v>1353.8020100000001</v>
@@ -7827,7 +7827,7 @@
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="37"/>
+      <c r="E79" s="38"/>
       <c r="F79" s="36"/>
       <c r="G79" s="3">
         <v>934.655933</v>
@@ -8015,10 +8015,10 @@
       <c r="D86" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="37">
+      <c r="E86" s="38">
         <v>2</v>
       </c>
-      <c r="F86" s="39" t="s">
+      <c r="F86" s="41" t="s">
         <v>76</v>
       </c>
       <c r="G86" s="3">
@@ -8041,7 +8041,7 @@
       <c r="D87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="37"/>
+      <c r="E87" s="38"/>
       <c r="F87" s="36"/>
       <c r="G87" s="3">
         <v>13728.4467993819</v>
@@ -8063,7 +8063,7 @@
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="37"/>
+      <c r="E88" s="38"/>
       <c r="F88" s="36"/>
       <c r="G88" s="3">
         <v>8977.8839493480009</v>
@@ -8088,7 +8088,7 @@
       <c r="E89" s="36">
         <v>3</v>
       </c>
-      <c r="F89" s="37" t="s">
+      <c r="F89" s="38" t="s">
         <v>77</v>
       </c>
       <c r="G89" s="3">
@@ -8112,7 +8112,7 @@
         <v>11</v>
       </c>
       <c r="E90" s="36"/>
-      <c r="F90" s="37"/>
+      <c r="F90" s="38"/>
       <c r="G90" s="3">
         <v>13709.4894</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>12</v>
       </c>
       <c r="E91" s="36"/>
-      <c r="F91" s="37"/>
+      <c r="F91" s="38"/>
       <c r="G91" s="3">
         <v>9209.4228399999993</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="D95" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="37">
+      <c r="E95" s="38">
         <v>2</v>
       </c>
       <c r="F95" s="36" t="s">
@@ -8255,7 +8255,7 @@
       <c r="D96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="37"/>
+      <c r="E96" s="38"/>
       <c r="F96" s="36"/>
       <c r="G96" s="3">
         <v>309.51980800000001</v>
@@ -8277,7 +8277,7 @@
       <c r="D97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="37"/>
+      <c r="E97" s="38"/>
       <c r="F97" s="36"/>
       <c r="G97" s="3">
         <v>1371.4509499999999</v>
@@ -8302,7 +8302,7 @@
       <c r="E98" s="36">
         <v>3</v>
       </c>
-      <c r="F98" s="37" t="s">
+      <c r="F98" s="38" t="s">
         <v>80</v>
       </c>
       <c r="G98" s="3">
@@ -8326,7 +8326,7 @@
         <v>11</v>
       </c>
       <c r="E99" s="36"/>
-      <c r="F99" s="37"/>
+      <c r="F99" s="38"/>
       <c r="G99" s="3">
         <v>316.58371</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>12</v>
       </c>
       <c r="E100" s="36"/>
-      <c r="F100" s="37"/>
+      <c r="F100" s="38"/>
       <c r="G100" s="3">
         <v>1171.1716100000001</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="B101" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="40" t="s">
+      <c r="C101" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -8376,7 +8376,7 @@
       <c r="E101" s="36">
         <v>1</v>
       </c>
-      <c r="F101" s="39" t="s">
+      <c r="F101" s="41" t="s">
         <v>69</v>
       </c>
       <c r="G101" s="3">
@@ -8443,7 +8443,7 @@
       <c r="D104" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="37">
+      <c r="E104" s="38">
         <v>2</v>
       </c>
       <c r="F104" s="36" t="s">
@@ -8469,7 +8469,7 @@
       <c r="D105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="37"/>
+      <c r="E105" s="38"/>
       <c r="F105" s="36"/>
       <c r="G105" s="3">
         <v>17709.027900000001</v>
@@ -8491,7 +8491,7 @@
       <c r="D106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="37"/>
+      <c r="E106" s="38"/>
       <c r="F106" s="36"/>
       <c r="G106" s="3">
         <v>9547.8684400000002</v>
@@ -8582,7 +8582,7 @@
       <c r="C110" s="35"/>
       <c r="D110" s="24"/>
       <c r="E110" s="35"/>
-      <c r="F110" s="43"/>
+      <c r="F110" s="37"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="35"/>
@@ -8590,7 +8590,7 @@
       <c r="C111" s="35"/>
       <c r="D111" s="24"/>
       <c r="E111" s="35"/>
-      <c r="F111" s="43"/>
+      <c r="F111" s="37"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="35"/>
@@ -8598,14 +8598,14 @@
       <c r="C112" s="35"/>
       <c r="D112" s="24"/>
       <c r="E112" s="35"/>
-      <c r="F112" s="43"/>
+      <c r="F112" s="37"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="35"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
       <c r="D113" s="24"/>
-      <c r="E113" s="42"/>
+      <c r="E113" s="39"/>
       <c r="F113" s="35"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -8613,7 +8613,7 @@
       <c r="B114" s="35"/>
       <c r="C114" s="35"/>
       <c r="D114" s="24"/>
-      <c r="E114" s="42"/>
+      <c r="E114" s="39"/>
       <c r="F114" s="35"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -8621,7 +8621,7 @@
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
       <c r="D115" s="24"/>
-      <c r="E115" s="42"/>
+      <c r="E115" s="39"/>
       <c r="F115" s="35"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -8630,7 +8630,7 @@
       <c r="C116" s="35"/>
       <c r="D116" s="24"/>
       <c r="E116" s="35"/>
-      <c r="F116" s="42"/>
+      <c r="F116" s="39"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="35"/>
@@ -8638,7 +8638,7 @@
       <c r="C117" s="35"/>
       <c r="D117" s="24"/>
       <c r="E117" s="35"/>
-      <c r="F117" s="42"/>
+      <c r="F117" s="39"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="35"/>
@@ -8646,7 +8646,7 @@
       <c r="C118" s="35"/>
       <c r="D118" s="24"/>
       <c r="E118" s="35"/>
-      <c r="F118" s="42"/>
+      <c r="F118" s="39"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="35"/>
@@ -8677,7 +8677,7 @@
       <c r="B122" s="35"/>
       <c r="C122" s="35"/>
       <c r="D122" s="24"/>
-      <c r="E122" s="42"/>
+      <c r="E122" s="39"/>
       <c r="F122" s="35"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -8685,7 +8685,7 @@
       <c r="B123" s="35"/>
       <c r="C123" s="35"/>
       <c r="D123" s="24"/>
-      <c r="E123" s="42"/>
+      <c r="E123" s="39"/>
       <c r="F123" s="35"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -8693,7 +8693,7 @@
       <c r="B124" s="35"/>
       <c r="C124" s="35"/>
       <c r="D124" s="24"/>
-      <c r="E124" s="42"/>
+      <c r="E124" s="39"/>
       <c r="F124" s="35"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -8702,7 +8702,7 @@
       <c r="C125" s="35"/>
       <c r="D125" s="24"/>
       <c r="E125" s="35"/>
-      <c r="F125" s="42"/>
+      <c r="F125" s="39"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="35"/>
@@ -8710,7 +8710,7 @@
       <c r="C126" s="35"/>
       <c r="D126" s="24"/>
       <c r="E126" s="35"/>
-      <c r="F126" s="42"/>
+      <c r="F126" s="39"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="35"/>
@@ -8718,7 +8718,7 @@
       <c r="C127" s="35"/>
       <c r="D127" s="24"/>
       <c r="E127" s="35"/>
-      <c r="F127" s="42"/>
+      <c r="F127" s="39"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="35"/>
@@ -8726,7 +8726,7 @@
       <c r="C128" s="35"/>
       <c r="D128" s="24"/>
       <c r="E128" s="35"/>
-      <c r="F128" s="41"/>
+      <c r="F128" s="40"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="35"/>
@@ -8749,7 +8749,7 @@
       <c r="B131" s="35"/>
       <c r="C131" s="35"/>
       <c r="D131" s="24"/>
-      <c r="E131" s="42"/>
+      <c r="E131" s="39"/>
       <c r="F131" s="35"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -8757,7 +8757,7 @@
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
       <c r="D132" s="24"/>
-      <c r="E132" s="42"/>
+      <c r="E132" s="39"/>
       <c r="F132" s="35"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -8765,7 +8765,7 @@
       <c r="B133" s="35"/>
       <c r="C133" s="35"/>
       <c r="D133" s="24"/>
-      <c r="E133" s="42"/>
+      <c r="E133" s="39"/>
       <c r="F133" s="35"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -8774,7 +8774,7 @@
       <c r="C134" s="35"/>
       <c r="D134" s="24"/>
       <c r="E134" s="35"/>
-      <c r="F134" s="43"/>
+      <c r="F134" s="37"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="35"/>
@@ -8782,7 +8782,7 @@
       <c r="C135" s="35"/>
       <c r="D135" s="24"/>
       <c r="E135" s="35"/>
-      <c r="F135" s="43"/>
+      <c r="F135" s="37"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="35"/>
@@ -8790,10 +8790,111 @@
       <c r="C136" s="35"/>
       <c r="D136" s="24"/>
       <c r="E136" s="35"/>
-      <c r="F136" s="43"/>
+      <c r="F136" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A56:A82"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="C65:C73"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="C74:C82"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="A29:A55"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="B101:B109"/>
+    <mergeCell ref="C101:C109"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="F128:F130"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A83:A109"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="C92:C100"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="E98:E100"/>
     <mergeCell ref="F134:F136"/>
     <mergeCell ref="E104:E106"/>
     <mergeCell ref="F104:F106"/>
@@ -8818,107 +8919,6 @@
     <mergeCell ref="F125:F127"/>
     <mergeCell ref="B128:B136"/>
     <mergeCell ref="C128:C136"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="F128:F130"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A83:A109"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="C83:C91"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="C92:C100"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="B101:B109"/>
-    <mergeCell ref="C101:C109"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="A29:A55"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A56:A82"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="B65:B73"/>
-    <mergeCell ref="C65:C73"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="C74:C82"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="E80:E82"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10038,15 +10038,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B35:B37"/>
@@ -10063,6 +10054,15 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10576,6 +10576,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
@@ -10592,12 +10598,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10608,7 +10608,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/report/experiments/1d_complete.xlsx
+++ b/report/experiments/1d_complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/QVO/code/xzyao/projects/index/msc-project/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3FF6DFA7-5EA9-C749-87D2-786369E3AA5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CB87DE4D-06C5-7640-95BD-696113EA9FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp1_details" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="634" uniqueCount="107">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="649" uniqueCount="113">
   <si>
     <t>Dimensions</t>
   </si>
@@ -360,6 +360,24 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>Lognormal</t>
+  </si>
+  <si>
+    <t>RMI</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Eval Time</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>CONV (b=32)</t>
   </si>
 </sst>
 </file>
@@ -10612,7 +10630,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10874,26 +10892,220 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDD44C1-2785-724D-A0F1-3AA221C1B06E}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>83</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>106</v>
       </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2">
+        <f>(D2*1000/10000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1111.3399999999999</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3.1342599999999998</v>
+      </c>
+      <c r="E3" s="9">
+        <v>6562.83</v>
+      </c>
+      <c r="F3" s="9">
+        <v>11.085900000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="0">(D3*1000/10000)</f>
+        <v>0.31342599999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="9">
+        <v>380.113</v>
+      </c>
+      <c r="D4" s="9">
+        <v>7.1143000000000001</v>
+      </c>
+      <c r="E4" s="9">
+        <v>135.89500000000001</v>
+      </c>
+      <c r="F4" s="9">
+        <v>10407.1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.71143000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.76058800000000004</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.40713</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3536.09</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.14071299999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.81195E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.8521999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="F6">
+        <v>240.48400000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.48521999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>1045.25</v>
+      </c>
+      <c r="D7">
+        <v>3.1362399999999999</v>
+      </c>
+      <c r="E7">
+        <v>3.8824999999999998</v>
+      </c>
+      <c r="F7">
+        <v>11.085900000000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.31362399999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>503.71899999999999</v>
+      </c>
+      <c r="D8">
+        <v>7.0664999999999996</v>
+      </c>
+      <c r="E8">
+        <v>2.1482999999999999</v>
+      </c>
+      <c r="F8">
+        <v>15531.7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.70665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1.03112</v>
+      </c>
+      <c r="D9">
+        <v>1.39537</v>
+      </c>
+      <c r="E9">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F9">
+        <v>4056.05</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.13953699999999999</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/report/experiments/1d_complete.xlsx
+++ b/report/experiments/1d_complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/QVO/code/xzyao/projects/index/msc-project/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CB87DE4D-06C5-7640-95BD-696113EA9FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2F41266B-3E45-9843-94C2-8740B2933D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp1_details" sheetId="3" r:id="rId1"/>
@@ -1014,10 +1014,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1026,14 +1032,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5565,8 +5565,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D66" sqref="D65:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5715,10 +5715,10 @@
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="38">
         <v>2</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="38" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="3">
@@ -5746,8 +5746,8 @@
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="3">
         <v>14.3543406649841</v>
       </c>
@@ -5773,8 +5773,8 @@
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="3">
         <v>167.87105353298799</v>
       </c>
@@ -5803,7 +5803,7 @@
       <c r="E8" s="36">
         <v>3</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="41" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="3">
@@ -5974,10 +5974,10 @@
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="38">
         <v>2</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="38" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="3">
@@ -6005,8 +6005,8 @@
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="3">
         <v>15.8145861490047</v>
       </c>
@@ -6032,8 +6032,8 @@
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="3">
         <v>154.290160763019</v>
       </c>
@@ -6233,10 +6233,10 @@
       <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="38">
         <v>2</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="38" t="s">
         <v>52</v>
       </c>
       <c r="G23" s="3">
@@ -6264,8 +6264,8 @@
       <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="3">
         <v>13.935029699999999</v>
       </c>
@@ -6291,8 +6291,8 @@
       <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="3">
         <v>53.1739733</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="E29" s="36">
         <v>1</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="43" t="s">
         <v>60</v>
       </c>
       <c r="G29" s="3">
@@ -6441,7 +6441,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="36"/>
-      <c r="F30" s="38"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="3">
         <v>135.585526263981</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="36"/>
-      <c r="F31" s="38"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="3">
         <v>994.52015342202503</v>
       </c>
@@ -6494,10 +6494,10 @@
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="38">
         <v>2</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="38" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="3">
@@ -6525,8 +6525,8 @@
       <c r="D33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="3">
         <v>143.45529908</v>
       </c>
@@ -6552,8 +6552,8 @@
       <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="3">
         <v>1054.15672565298</v>
       </c>
@@ -6582,7 +6582,7 @@
       <c r="E35" s="36">
         <v>3</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="41" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="3">
@@ -6753,10 +6753,10 @@
       <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="38">
         <v>2</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="38" t="s">
         <v>57</v>
       </c>
       <c r="G41" s="3">
@@ -6784,8 +6784,8 @@
       <c r="D42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
       <c r="G42" s="3">
         <v>138.93720416200799</v>
       </c>
@@ -6811,8 +6811,8 @@
       <c r="D43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
       <c r="G43" s="3">
         <v>557.50881961203402</v>
       </c>
@@ -7012,10 +7012,10 @@
       <c r="D50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="38">
         <v>2</v>
       </c>
-      <c r="F50" s="37" t="s">
+      <c r="F50" s="38" t="s">
         <v>71</v>
       </c>
       <c r="G50" s="3">
@@ -7043,8 +7043,8 @@
       <c r="D51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
       <c r="G51" s="3">
         <v>133.76215766899901</v>
       </c>
@@ -7070,8 +7070,8 @@
       <c r="D52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
       <c r="G52" s="3">
         <v>460.02056048699802</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="D59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E59" s="38">
         <v>2</v>
       </c>
       <c r="F59" s="36" t="s">
@@ -7304,7 +7304,7 @@
       <c r="D60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="37"/>
+      <c r="E60" s="38"/>
       <c r="F60" s="36"/>
       <c r="G60" s="3">
         <v>1337.1462100000001</v>
@@ -7331,7 +7331,7 @@
       <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="37"/>
+      <c r="E61" s="38"/>
       <c r="F61" s="36"/>
       <c r="G61" s="3">
         <v>1239.37895</v>
@@ -7361,7 +7361,7 @@
       <c r="E62" s="36">
         <v>3</v>
       </c>
-      <c r="F62" s="37" t="s">
+      <c r="F62" s="38" t="s">
         <v>63</v>
       </c>
       <c r="G62" s="3">
@@ -7390,7 +7390,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="36"/>
-      <c r="F63" s="37"/>
+      <c r="F63" s="38"/>
       <c r="G63" s="3">
         <v>1325.36374</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>12</v>
       </c>
       <c r="E64" s="36"/>
-      <c r="F64" s="37"/>
+      <c r="F64" s="38"/>
       <c r="G64" s="3">
         <v>1316.13453</v>
       </c>
@@ -7532,7 +7532,7 @@
       <c r="D68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="38">
         <v>2</v>
       </c>
       <c r="F68" s="36" t="s">
@@ -7563,7 +7563,7 @@
       <c r="D69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="37"/>
+      <c r="E69" s="38"/>
       <c r="F69" s="36"/>
       <c r="G69" s="3">
         <v>1375.1419900000001</v>
@@ -7590,7 +7590,7 @@
       <c r="D70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="37"/>
+      <c r="E70" s="38"/>
       <c r="F70" s="36"/>
       <c r="G70" s="3">
         <v>1604.15642</v>
@@ -7620,7 +7620,7 @@
       <c r="E71" s="36">
         <v>3</v>
       </c>
-      <c r="F71" s="37" t="s">
+      <c r="F71" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G71" s="3">
@@ -7649,7 +7649,7 @@
         <v>11</v>
       </c>
       <c r="E72" s="36"/>
-      <c r="F72" s="37"/>
+      <c r="F72" s="38"/>
       <c r="G72" s="3">
         <v>1443.8668500000001</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="36"/>
-      <c r="F73" s="37"/>
+      <c r="F73" s="38"/>
       <c r="G73" s="3">
         <v>1223.54069</v>
       </c>
@@ -7709,7 +7709,7 @@
       <c r="E74" s="36">
         <v>1</v>
       </c>
-      <c r="F74" s="39" t="s">
+      <c r="F74" s="41" t="s">
         <v>67</v>
       </c>
       <c r="G74" s="3">
@@ -7791,7 +7791,7 @@
       <c r="D77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="37">
+      <c r="E77" s="38">
         <v>2</v>
       </c>
       <c r="F77" s="36" t="s">
@@ -7822,7 +7822,7 @@
       <c r="D78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="37"/>
+      <c r="E78" s="38"/>
       <c r="F78" s="36"/>
       <c r="G78" s="3">
         <v>1353.8020100000001</v>
@@ -7849,7 +7849,7 @@
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="37"/>
+      <c r="E79" s="38"/>
       <c r="F79" s="36"/>
       <c r="G79" s="3">
         <v>934.655933</v>
@@ -8037,10 +8037,10 @@
       <c r="D86" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="37">
+      <c r="E86" s="38">
         <v>2</v>
       </c>
-      <c r="F86" s="39" t="s">
+      <c r="F86" s="41" t="s">
         <v>76</v>
       </c>
       <c r="G86" s="3">
@@ -8063,7 +8063,7 @@
       <c r="D87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="37"/>
+      <c r="E87" s="38"/>
       <c r="F87" s="36"/>
       <c r="G87" s="3">
         <v>13728.4467993819</v>
@@ -8085,7 +8085,7 @@
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="37"/>
+      <c r="E88" s="38"/>
       <c r="F88" s="36"/>
       <c r="G88" s="3">
         <v>8977.8839493480009</v>
@@ -8110,7 +8110,7 @@
       <c r="E89" s="36">
         <v>3</v>
       </c>
-      <c r="F89" s="37" t="s">
+      <c r="F89" s="38" t="s">
         <v>77</v>
       </c>
       <c r="G89" s="3">
@@ -8134,7 +8134,7 @@
         <v>11</v>
       </c>
       <c r="E90" s="36"/>
-      <c r="F90" s="37"/>
+      <c r="F90" s="38"/>
       <c r="G90" s="3">
         <v>13709.4894</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>12</v>
       </c>
       <c r="E91" s="36"/>
-      <c r="F91" s="37"/>
+      <c r="F91" s="38"/>
       <c r="G91" s="3">
         <v>9209.4228399999993</v>
       </c>
@@ -8251,7 +8251,7 @@
       <c r="D95" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="37">
+      <c r="E95" s="38">
         <v>2</v>
       </c>
       <c r="F95" s="36" t="s">
@@ -8277,7 +8277,7 @@
       <c r="D96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="37"/>
+      <c r="E96" s="38"/>
       <c r="F96" s="36"/>
       <c r="G96" s="3">
         <v>309.51980800000001</v>
@@ -8299,7 +8299,7 @@
       <c r="D97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="37"/>
+      <c r="E97" s="38"/>
       <c r="F97" s="36"/>
       <c r="G97" s="3">
         <v>1371.4509499999999</v>
@@ -8324,7 +8324,7 @@
       <c r="E98" s="36">
         <v>3</v>
       </c>
-      <c r="F98" s="37" t="s">
+      <c r="F98" s="38" t="s">
         <v>80</v>
       </c>
       <c r="G98" s="3">
@@ -8348,7 +8348,7 @@
         <v>11</v>
       </c>
       <c r="E99" s="36"/>
-      <c r="F99" s="37"/>
+      <c r="F99" s="38"/>
       <c r="G99" s="3">
         <v>316.58371</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>12</v>
       </c>
       <c r="E100" s="36"/>
-      <c r="F100" s="37"/>
+      <c r="F100" s="38"/>
       <c r="G100" s="3">
         <v>1171.1716100000001</v>
       </c>
@@ -8389,7 +8389,7 @@
       <c r="B101" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="40" t="s">
+      <c r="C101" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -8398,7 +8398,7 @@
       <c r="E101" s="36">
         <v>1</v>
       </c>
-      <c r="F101" s="39" t="s">
+      <c r="F101" s="41" t="s">
         <v>69</v>
       </c>
       <c r="G101" s="3">
@@ -8465,7 +8465,7 @@
       <c r="D104" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="37">
+      <c r="E104" s="38">
         <v>2</v>
       </c>
       <c r="F104" s="36" t="s">
@@ -8491,7 +8491,7 @@
       <c r="D105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="37"/>
+      <c r="E105" s="38"/>
       <c r="F105" s="36"/>
       <c r="G105" s="3">
         <v>17709.027900000001</v>
@@ -8513,7 +8513,7 @@
       <c r="D106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="37"/>
+      <c r="E106" s="38"/>
       <c r="F106" s="36"/>
       <c r="G106" s="3">
         <v>9547.8684400000002</v>
@@ -8604,7 +8604,7 @@
       <c r="C110" s="35"/>
       <c r="D110" s="24"/>
       <c r="E110" s="35"/>
-      <c r="F110" s="43"/>
+      <c r="F110" s="37"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="35"/>
@@ -8612,7 +8612,7 @@
       <c r="C111" s="35"/>
       <c r="D111" s="24"/>
       <c r="E111" s="35"/>
-      <c r="F111" s="43"/>
+      <c r="F111" s="37"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="35"/>
@@ -8620,14 +8620,14 @@
       <c r="C112" s="35"/>
       <c r="D112" s="24"/>
       <c r="E112" s="35"/>
-      <c r="F112" s="43"/>
+      <c r="F112" s="37"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="35"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
       <c r="D113" s="24"/>
-      <c r="E113" s="42"/>
+      <c r="E113" s="39"/>
       <c r="F113" s="35"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -8635,7 +8635,7 @@
       <c r="B114" s="35"/>
       <c r="C114" s="35"/>
       <c r="D114" s="24"/>
-      <c r="E114" s="42"/>
+      <c r="E114" s="39"/>
       <c r="F114" s="35"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -8643,7 +8643,7 @@
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
       <c r="D115" s="24"/>
-      <c r="E115" s="42"/>
+      <c r="E115" s="39"/>
       <c r="F115" s="35"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -8652,7 +8652,7 @@
       <c r="C116" s="35"/>
       <c r="D116" s="24"/>
       <c r="E116" s="35"/>
-      <c r="F116" s="42"/>
+      <c r="F116" s="39"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="35"/>
@@ -8660,7 +8660,7 @@
       <c r="C117" s="35"/>
       <c r="D117" s="24"/>
       <c r="E117" s="35"/>
-      <c r="F117" s="42"/>
+      <c r="F117" s="39"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="35"/>
@@ -8668,7 +8668,7 @@
       <c r="C118" s="35"/>
       <c r="D118" s="24"/>
       <c r="E118" s="35"/>
-      <c r="F118" s="42"/>
+      <c r="F118" s="39"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="35"/>
@@ -8699,7 +8699,7 @@
       <c r="B122" s="35"/>
       <c r="C122" s="35"/>
       <c r="D122" s="24"/>
-      <c r="E122" s="42"/>
+      <c r="E122" s="39"/>
       <c r="F122" s="35"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -8707,7 +8707,7 @@
       <c r="B123" s="35"/>
       <c r="C123" s="35"/>
       <c r="D123" s="24"/>
-      <c r="E123" s="42"/>
+      <c r="E123" s="39"/>
       <c r="F123" s="35"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -8715,7 +8715,7 @@
       <c r="B124" s="35"/>
       <c r="C124" s="35"/>
       <c r="D124" s="24"/>
-      <c r="E124" s="42"/>
+      <c r="E124" s="39"/>
       <c r="F124" s="35"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -8724,7 +8724,7 @@
       <c r="C125" s="35"/>
       <c r="D125" s="24"/>
       <c r="E125" s="35"/>
-      <c r="F125" s="42"/>
+      <c r="F125" s="39"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="35"/>
@@ -8732,7 +8732,7 @@
       <c r="C126" s="35"/>
       <c r="D126" s="24"/>
       <c r="E126" s="35"/>
-      <c r="F126" s="42"/>
+      <c r="F126" s="39"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="35"/>
@@ -8740,7 +8740,7 @@
       <c r="C127" s="35"/>
       <c r="D127" s="24"/>
       <c r="E127" s="35"/>
-      <c r="F127" s="42"/>
+      <c r="F127" s="39"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="35"/>
@@ -8748,7 +8748,7 @@
       <c r="C128" s="35"/>
       <c r="D128" s="24"/>
       <c r="E128" s="35"/>
-      <c r="F128" s="41"/>
+      <c r="F128" s="40"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="35"/>
@@ -8771,7 +8771,7 @@
       <c r="B131" s="35"/>
       <c r="C131" s="35"/>
       <c r="D131" s="24"/>
-      <c r="E131" s="42"/>
+      <c r="E131" s="39"/>
       <c r="F131" s="35"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -8779,7 +8779,7 @@
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
       <c r="D132" s="24"/>
-      <c r="E132" s="42"/>
+      <c r="E132" s="39"/>
       <c r="F132" s="35"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -8787,7 +8787,7 @@
       <c r="B133" s="35"/>
       <c r="C133" s="35"/>
       <c r="D133" s="24"/>
-      <c r="E133" s="42"/>
+      <c r="E133" s="39"/>
       <c r="F133" s="35"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -8796,7 +8796,7 @@
       <c r="C134" s="35"/>
       <c r="D134" s="24"/>
       <c r="E134" s="35"/>
-      <c r="F134" s="43"/>
+      <c r="F134" s="37"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="35"/>
@@ -8804,7 +8804,7 @@
       <c r="C135" s="35"/>
       <c r="D135" s="24"/>
       <c r="E135" s="35"/>
-      <c r="F135" s="43"/>
+      <c r="F135" s="37"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="35"/>
@@ -8812,10 +8812,111 @@
       <c r="C136" s="35"/>
       <c r="D136" s="24"/>
       <c r="E136" s="35"/>
-      <c r="F136" s="43"/>
+      <c r="F136" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A56:A82"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="C65:C73"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="C74:C82"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="A29:A55"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="B101:B109"/>
+    <mergeCell ref="C101:C109"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="F128:F130"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A83:A109"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="C92:C100"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="E98:E100"/>
     <mergeCell ref="F134:F136"/>
     <mergeCell ref="E104:E106"/>
     <mergeCell ref="F104:F106"/>
@@ -8840,107 +8941,6 @@
     <mergeCell ref="F125:F127"/>
     <mergeCell ref="B128:B136"/>
     <mergeCell ref="C128:C136"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="F128:F130"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A83:A109"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="C83:C91"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="C92:C100"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="B101:B109"/>
-    <mergeCell ref="C101:C109"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="A29:A55"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A56:A82"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="B65:B73"/>
-    <mergeCell ref="C65:C73"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="C74:C82"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="E80:E82"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8955,7 +8955,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:I29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10060,15 +10060,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B35:B37"/>
@@ -10085,6 +10076,15 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10598,6 +10598,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
@@ -10614,12 +10620,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10894,8 +10894,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDD44C1-2785-724D-A0F1-3AA221C1B06E}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
